--- a/Functions_Adriana_Ricklin.xlsx
+++ b/Functions_Adriana_Ricklin.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\adriana\HSLU\FS20\R_Bootcamp_Sept2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\home\adriana\GitHub\r-bootcamp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3C9BB3D-40E7-4A94-92CC-DC7FD3C423D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{728D55C9-C482-41C9-BCE4-82F7A4B3C628}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{D082C842-AFA8-48A0-A342-BA22720F62EB}"/>
+    <workbookView xWindow="16553" yWindow="4507" windowWidth="11249" windowHeight="14400" xr2:uid="{D082C842-AFA8-48A0-A342-BA22720F62EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="86">
   <si>
     <t>colours()</t>
   </si>
@@ -177,9 +177,6 @@
   </si>
   <si>
     <t>xyplot()</t>
-  </si>
-  <si>
-    <t>adding a smoother on a ggplot from library(ggplot2)</t>
   </si>
   <si>
     <t>x</t>
@@ -273,6 +270,69 @@
   </si>
   <si>
     <t>Cooks Distance. It is a apparently a good thing as an indicator in graphs.</t>
+  </si>
+  <si>
+    <t>plot.gam()</t>
+  </si>
+  <si>
+    <t>library()</t>
+  </si>
+  <si>
+    <t>colnames()</t>
+  </si>
+  <si>
+    <t>head()</t>
+  </si>
+  <si>
+    <t>aggregate()</t>
+  </si>
+  <si>
+    <t>left_join()</t>
+  </si>
+  <si>
+    <t>str_sub()</t>
+  </si>
+  <si>
+    <t>subset()</t>
+  </si>
+  <si>
+    <t>histogram()</t>
+  </si>
+  <si>
+    <t>ggplot()</t>
+  </si>
+  <si>
+    <t>adding a smoother on a ggplot()-function from library(ggplot2)</t>
+  </si>
+  <si>
+    <t>arrange()</t>
+  </si>
+  <si>
+    <t>mutate()</t>
+  </si>
+  <si>
+    <t>qplot()</t>
+  </si>
+  <si>
+    <t>abline()</t>
+  </si>
+  <si>
+    <t>grid()</t>
+  </si>
+  <si>
+    <t>legend()</t>
+  </si>
+  <si>
+    <t>plot_ly()</t>
+  </si>
+  <si>
+    <t>add_markers()</t>
+  </si>
+  <si>
+    <t>add_trace()</t>
+  </si>
+  <si>
+    <t>gam()</t>
   </si>
 </sst>
 </file>
@@ -337,7 +397,7 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -345,13 +405,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -677,10 +730,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6410F88D-D419-4A51-BB7F-EEFF97FC58F0}">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -693,18 +746,18 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="2" customFormat="1" ht="6.4" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
@@ -777,7 +830,7 @@
         <v>38</v>
       </c>
       <c r="E13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
@@ -790,10 +843,10 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E15" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
@@ -883,7 +936,7 @@
         <v>37</v>
       </c>
       <c r="E27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.45">
@@ -930,36 +983,36 @@
         <v>47</v>
       </c>
       <c r="C34" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E36" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
+        <v>55</v>
+      </c>
+      <c r="E37" t="s">
         <v>56</v>
-      </c>
-      <c r="E37" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
+        <v>59</v>
+      </c>
+      <c r="E38" t="s">
         <v>60</v>
-      </c>
-      <c r="E38" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.45">
@@ -967,15 +1020,135 @@
         <v>43</v>
       </c>
       <c r="E39" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
+        <v>61</v>
+      </c>
+      <c r="E40" t="s">
         <v>62</v>
       </c>
-      <c r="E40" t="s">
-        <v>63</v>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A47" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A48" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A49" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A50" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A51" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A52" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A53" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A54" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A55" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A56" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A57" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A58" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A59" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A60" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A61" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A62" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A63" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A64" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -983,7 +1156,7 @@
     <sortCondition ref="A2"/>
   </sortState>
   <conditionalFormatting sqref="B2:B1048576">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Functions_Adriana_Ricklin.xlsx
+++ b/Functions_Adriana_Ricklin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\home\adriana\GitHub\r-bootcamp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{728D55C9-C482-41C9-BCE4-82F7A4B3C628}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9283248B-9C56-4E52-81DB-7439C622A8CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16553" yWindow="4507" windowWidth="11249" windowHeight="14400" xr2:uid="{D082C842-AFA8-48A0-A342-BA22720F62EB}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="110">
   <si>
     <t>colours()</t>
   </si>
@@ -333,6 +333,78 @@
   </si>
   <si>
     <t>gam()</t>
+  </si>
+  <si>
+    <t>rbind()</t>
+  </si>
+  <si>
+    <t>cbind()</t>
+  </si>
+  <si>
+    <t>data.frame()</t>
+  </si>
+  <si>
+    <t>paste()</t>
+  </si>
+  <si>
+    <t>nrow()</t>
+  </si>
+  <si>
+    <t>rep()</t>
+  </si>
+  <si>
+    <t>creates a vector in which values are replicated</t>
+  </si>
+  <si>
+    <t>rnorm()</t>
+  </si>
+  <si>
+    <t>simulation of normal distribution</t>
+  </si>
+  <si>
+    <t>pnorm()</t>
+  </si>
+  <si>
+    <t>qnorm()</t>
+  </si>
+  <si>
+    <t>dnorm()</t>
+  </si>
+  <si>
+    <t>hist()</t>
+  </si>
+  <si>
+    <t>par()</t>
+  </si>
+  <si>
+    <t>with mfrow and a vector c(columns, rows) in it, it displays an according number of graphs</t>
+  </si>
+  <si>
+    <t>is.list()</t>
+  </si>
+  <si>
+    <t>is.numeric()</t>
+  </si>
+  <si>
+    <t>as.numeric()</t>
+  </si>
+  <si>
+    <t>as.factor()</t>
+  </si>
+  <si>
+    <t>sample()</t>
+  </si>
+  <si>
+    <t>jpeg()</t>
+  </si>
+  <si>
+    <t>anyNA()</t>
+  </si>
+  <si>
+    <t>is.na()</t>
+  </si>
+  <si>
+    <t>which()</t>
   </si>
 </sst>
 </file>
@@ -730,10 +802,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6410F88D-D419-4A51-BB7F-EEFF97FC58F0}">
-  <dimension ref="A1:E64"/>
+  <dimension ref="A1:E85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="F61" sqref="F61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1149,6 +1221,120 @@
     <row r="64" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>85</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A65" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A66" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A67" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A68" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A69" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A70" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A71" t="s">
+        <v>91</v>
+      </c>
+      <c r="E71" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A72" t="s">
+        <v>93</v>
+      </c>
+      <c r="E72" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A73" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A74" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A75" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A76" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A77" t="s">
+        <v>99</v>
+      </c>
+      <c r="E77" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A78" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A79" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A80" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A81" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A82" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A83" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A84" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A85" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/Functions_Adriana_Ricklin.xlsx
+++ b/Functions_Adriana_Ricklin.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\home\adriana\GitHub\r-bootcamp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9283248B-9C56-4E52-81DB-7439C622A8CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0D2B991-94C3-4C66-911C-1255E3D2F47E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16553" yWindow="4507" windowWidth="11249" windowHeight="14400" xr2:uid="{D082C842-AFA8-48A0-A342-BA22720F62EB}"/>
+    <workbookView xWindow="16590" yWindow="4725" windowWidth="11250" windowHeight="14400" xr2:uid="{D082C842-AFA8-48A0-A342-BA22720F62EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="136">
   <si>
     <t>colours()</t>
   </si>
@@ -405,6 +405,84 @@
   </si>
   <si>
     <t>which()</t>
+  </si>
+  <si>
+    <t>is.factor()</t>
+  </si>
+  <si>
+    <t>checks if there are missing values in input</t>
+  </si>
+  <si>
+    <t>checks if input is a factor</t>
+  </si>
+  <si>
+    <t>checks if input is numeric</t>
+  </si>
+  <si>
+    <t>creates a boxplot from input</t>
+  </si>
+  <si>
+    <t>binds columns</t>
+  </si>
+  <si>
+    <t>column names</t>
+  </si>
+  <si>
+    <t>returns the first couple data points of input</t>
+  </si>
+  <si>
+    <t>transforms input into a factor</t>
+  </si>
+  <si>
+    <t>transforms input into numerics</t>
+  </si>
+  <si>
+    <t>creates a ggplot (plot with more design functions basically)</t>
+  </si>
+  <si>
+    <t>checks if input is a list</t>
+  </si>
+  <si>
+    <t>checks if in input, there are missing values</t>
+  </si>
+  <si>
+    <t>loads library according to input</t>
+  </si>
+  <si>
+    <t>creates a plot, like "interactive" 3D plots --&gt; library(plotly)</t>
+  </si>
+  <si>
+    <t>binds rows</t>
+  </si>
+  <si>
+    <t>adds a trace to a plotly function</t>
+  </si>
+  <si>
+    <t>adds a marker to a plotly function</t>
+  </si>
+  <si>
+    <t>adds a line to a plot</t>
+  </si>
+  <si>
+    <t>computes the absolute value</t>
+  </si>
+  <si>
+    <t>adds a legend to a plot</t>
+  </si>
+  <si>
+    <t>creates a dataframe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">returns a character vector giving the names of objects in the search list </t>
+  </si>
+  <si>
+    <t>arrange input data by a specific order (desc() will make it descending)</t>
+  </si>
+  <si>
+    <t>give the TRUE indices of a logical object</t>
+  </si>
+  <si>
+    <t>refits a previous established model</t>
   </si>
 </sst>
 </file>
@@ -802,10 +880,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6410F88D-D419-4A51-BB7F-EEFF97FC58F0}">
-  <dimension ref="A1:E85"/>
+  <dimension ref="A1:E80"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="F61" sqref="F61"/>
+      <selection activeCell="H80" sqref="H80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -824,529 +902,585 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="2" customFormat="1" ht="6.4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>51</v>
       </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>34</v>
+        <v>79</v>
+      </c>
+      <c r="B4"/>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>53</v>
+      </c>
+      <c r="E5" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>83</v>
+      </c>
+      <c r="E6" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>84</v>
+      </c>
+      <c r="E7" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E9" t="s">
-        <v>1</v>
+        <v>33</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>107</v>
+      </c>
+      <c r="E11" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E12" t="s">
-        <v>21</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>104</v>
+      </c>
+      <c r="E14" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>48</v>
+        <v>103</v>
       </c>
       <c r="E15" t="s">
-        <v>75</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="E16" t="s">
-        <v>3</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E17" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>87</v>
       </c>
       <c r="E18" t="s">
-        <v>16</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="E19" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>67</v>
+      </c>
+      <c r="E20" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="E22" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>31</v>
+        <v>17</v>
+      </c>
+      <c r="E23" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="E24" t="s">
-        <v>12</v>
+        <v>131</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>4</v>
-      </c>
-      <c r="E26" t="s">
-        <v>22</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E27" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>39</v>
-      </c>
-      <c r="E28" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>35</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>23</v>
+      </c>
+      <c r="B30" t="s">
+        <v>48</v>
+      </c>
+      <c r="E30" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="E31" t="s">
-        <v>42</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>43</v>
+        <v>74</v>
+      </c>
+      <c r="E32" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="E33" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>47</v>
-      </c>
-      <c r="C34" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>53</v>
+        <v>68</v>
+      </c>
+      <c r="E35" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>54</v>
-      </c>
-      <c r="E36" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>55</v>
-      </c>
-      <c r="E37" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>59</v>
+        <v>110</v>
       </c>
       <c r="E38" t="s">
-        <v>60</v>
+        <v>112</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>43</v>
+        <v>101</v>
       </c>
       <c r="E39" t="s">
-        <v>63</v>
+        <v>121</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>61</v>
+        <v>108</v>
       </c>
       <c r="E40" t="s">
-        <v>62</v>
+        <v>122</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>65</v>
+        <v>102</v>
+      </c>
+      <c r="E41" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>66</v>
+        <v>106</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>68</v>
+        <v>81</v>
+      </c>
+      <c r="E44" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>69</v>
+        <v>66</v>
+      </c>
+      <c r="E45" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>70</v>
+        <v>44</v>
+      </c>
+      <c r="E46" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>71</v>
+        <v>15</v>
+      </c>
+      <c r="E47" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
+        <v>61</v>
+      </c>
+      <c r="E48" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.45">
+        <v>41</v>
+      </c>
+      <c r="E51" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
+        <v>99</v>
+      </c>
+      <c r="E52" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A54" t="s">
+        <v>32</v>
+      </c>
+      <c r="E54" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A55" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A56" t="s">
+        <v>82</v>
+      </c>
+      <c r="E56" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A57" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A58" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A59" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A60" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A54" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A55" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A56" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A57" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A58" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A59" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A60" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.45">
+        <v>86</v>
+      </c>
+      <c r="E61" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.45">
+        <v>6</v>
+      </c>
+      <c r="E62" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.45">
+        <v>5</v>
+      </c>
+      <c r="E63" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
-        <v>85</v>
+        <v>91</v>
+      </c>
+      <c r="E64" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
-        <v>86</v>
+        <v>31</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
-        <v>87</v>
+        <v>93</v>
+      </c>
+      <c r="E66" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
-        <v>105</v>
+        <v>55</v>
+      </c>
+      <c r="E68" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
-        <v>89</v>
+        <v>11</v>
+      </c>
+      <c r="E69" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
-        <v>90</v>
+        <v>9</v>
+      </c>
+      <c r="E70" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
-        <v>91</v>
+        <v>4</v>
       </c>
       <c r="E71" t="s">
-        <v>92</v>
+        <v>22</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="E72" t="s">
-        <v>94</v>
+        <v>57</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
-        <v>97</v>
+        <v>43</v>
+      </c>
+      <c r="E75" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
-        <v>98</v>
+        <v>39</v>
+      </c>
+      <c r="E76" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
-        <v>99</v>
-      </c>
-      <c r="E77" t="s">
-        <v>100</v>
+        <v>35</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
-        <v>101</v>
+        <v>29</v>
+      </c>
+      <c r="E78" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
-        <v>102</v>
+        <v>109</v>
+      </c>
+      <c r="E79" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A81" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A82" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A83" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A84" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A85" t="s">
-        <v>109</v>
+        <v>47</v>
+      </c>
+      <c r="C80" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:E30">
-    <sortCondition ref="A2"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:E80">
+    <sortCondition ref="A46"/>
   </sortState>
-  <conditionalFormatting sqref="B2:B1048576">
+  <conditionalFormatting sqref="B4:B1048576 B1:B2">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C1048576">
+  <conditionalFormatting sqref="C4:C1048576 C1:C2">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"x"</formula>
     </cfRule>

--- a/Functions_Adriana_Ricklin.xlsx
+++ b/Functions_Adriana_Ricklin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\home\adriana\GitHub\r-bootcamp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0D2B991-94C3-4C66-911C-1255E3D2F47E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF53D994-4356-4F20-B6AC-73DD3CC8D6FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16590" yWindow="4725" windowWidth="11250" windowHeight="14400" xr2:uid="{D082C842-AFA8-48A0-A342-BA22720F62EB}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="157">
   <si>
     <t>colours()</t>
   </si>
@@ -107,9 +107,6 @@
     <t>geom_smooth()</t>
   </si>
   <si>
-    <t>poly()</t>
-  </si>
-  <si>
     <t>deletes all graphics in the history</t>
   </si>
   <si>
@@ -156,9 +153,6 @@
   </si>
   <si>
     <t>standard: welch --&gt; if we want student t-test, set argument var.equal = TRUE</t>
-  </si>
-  <si>
-    <t>pairs()</t>
   </si>
   <si>
     <t>scatterplot of all variables (y against a, b, c; a against b, c, y and so on) --&gt; best: to add smoothers to highlight relationships</t>
@@ -290,15 +284,9 @@
     <t>left_join()</t>
   </si>
   <si>
-    <t>str_sub()</t>
-  </si>
-  <si>
     <t>subset()</t>
   </si>
   <si>
-    <t>histogram()</t>
-  </si>
-  <si>
     <t>ggplot()</t>
   </si>
   <si>
@@ -483,6 +471,81 @@
   </si>
   <si>
     <t>refits a previous established model</t>
+  </si>
+  <si>
+    <t>returns the value of the probability density function for the normal distribution given parameters for x, μ, and σ</t>
+  </si>
+  <si>
+    <t>returns the integral from −∞ to q of the pdf of the normal distribution where q is a Z-score</t>
+  </si>
+  <si>
+    <t>calculated fittes values for joint models</t>
+  </si>
+  <si>
+    <t>addds a grid to an existing plot</t>
+  </si>
+  <si>
+    <t>creates a histogram</t>
+  </si>
+  <si>
+    <t>to add jpeg's easily</t>
+  </si>
+  <si>
+    <t>dplyr --&gt; joins tables by a defined "by"-value</t>
+  </si>
+  <si>
+    <t>adding new variables whereas existing ones are preserved</t>
+  </si>
+  <si>
+    <t>ncol()</t>
+  </si>
+  <si>
+    <t>returns number of columns</t>
+  </si>
+  <si>
+    <t>returns number of rows</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>concatenates strings</t>
+  </si>
+  <si>
+    <t>part of the gam-package --&gt; plot method for GAM's</t>
+  </si>
+  <si>
+    <t>library(mgcv) --&gt; fit a GAM to input data</t>
+  </si>
+  <si>
+    <t>"summarizes" data</t>
+  </si>
+  <si>
+    <t>creates a subset</t>
+  </si>
+  <si>
+    <t>uses the cross-classifying factors to build a contingency table of the counts at each combination of factor levels.</t>
+  </si>
+  <si>
+    <t>random sample and permutations</t>
+  </si>
+  <si>
+    <t>extracts model residuals from objects</t>
+  </si>
+  <si>
+    <t>Density, distribution function, quantile function and random generation for the normal distribution</t>
+  </si>
+  <si>
+    <t>a bit fancier function than plot() (but basically the same)</t>
+  </si>
+  <si>
+    <t>twodimensional plot</t>
+  </si>
+  <si>
+    <t>gets/sets the library trees within which packages are looked for</t>
+  </si>
+  <si>
+    <t>compute analysis of variance (or deviance) tables for one or more fitted model objects.</t>
   </si>
 </sst>
 </file>
@@ -880,10 +943,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6410F88D-D419-4A51-BB7F-EEFF97FC58F0}">
-  <dimension ref="A1:E80"/>
+  <dimension ref="A1:E78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="H80" sqref="H80"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -896,127 +959,136 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="E3" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B4"/>
       <c r="C4"/>
       <c r="D4"/>
       <c r="E4" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E6" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E8" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>27</v>
+      </c>
+      <c r="E10" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
+        <v>103</v>
+      </c>
+      <c r="E11" t="s">
         <v>107</v>
-      </c>
-      <c r="E11" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E12" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>76</v>
+        <v>72</v>
+      </c>
+      <c r="E13" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E14" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E15" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E16" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.45">
@@ -1029,26 +1101,26 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E18" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E19" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E20" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.45">
@@ -1061,10 +1133,10 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E22" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.45">
@@ -1077,10 +1149,10 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E24" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.45">
@@ -1093,25 +1165,34 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>97</v>
+        <v>93</v>
+      </c>
+      <c r="E26" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E27" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+      <c r="E28" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>85</v>
+        <v>81</v>
+      </c>
+      <c r="E29" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.45">
@@ -1119,10 +1200,10 @@
         <v>23</v>
       </c>
       <c r="B30" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E30" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.45">
@@ -1135,10 +1216,10 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E32" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.45">
@@ -1146,54 +1227,63 @@
         <v>19</v>
       </c>
       <c r="E33" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>80</v>
+        <v>76</v>
+      </c>
+      <c r="E34" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E35" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>98</v>
+        <v>94</v>
+      </c>
+      <c r="E36" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>73</v>
+        <v>106</v>
+      </c>
+      <c r="E37" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="E38" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E39" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="E40" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.45">
@@ -1201,286 +1291,321 @@
         <v>102</v>
       </c>
       <c r="E41" t="s">
-        <v>113</v>
+        <v>137</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>106</v>
+        <v>68</v>
+      </c>
+      <c r="E42" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>70</v>
+        <v>77</v>
+      </c>
+      <c r="E43" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="E44" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="E45" t="s">
-        <v>123</v>
+        <v>43</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="E46" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="E47" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="E48" t="s">
-        <v>62</v>
+        <v>139</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
-        <v>77</v>
+        <v>140</v>
+      </c>
+      <c r="E49" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>90</v>
+        <v>86</v>
+      </c>
+      <c r="E50" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
-        <v>41</v>
+        <v>143</v>
       </c>
       <c r="E51" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E52" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
-        <v>89</v>
+        <v>85</v>
+      </c>
+      <c r="E53" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E54" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
-        <v>65</v>
+        <v>63</v>
+      </c>
+      <c r="E55" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E56" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
-        <v>95</v>
+        <v>91</v>
+      </c>
+      <c r="E57" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
-        <v>24</v>
+        <v>92</v>
+      </c>
+      <c r="E58" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
-        <v>96</v>
+        <v>74</v>
+      </c>
+      <c r="B59" t="s">
+        <v>46</v>
+      </c>
+      <c r="E59" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
-        <v>78</v>
+        <v>82</v>
+      </c>
+      <c r="E60" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
-        <v>86</v>
+        <v>6</v>
       </c>
       <c r="E61" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
-        <v>5</v>
+        <v>87</v>
       </c>
       <c r="E63" t="s">
-        <v>8</v>
+        <v>88</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
-        <v>91</v>
+        <v>30</v>
       </c>
       <c r="E64" t="s">
-        <v>92</v>
+        <v>151</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
-        <v>31</v>
+        <v>89</v>
+      </c>
+      <c r="E65" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="E66" t="s">
-        <v>94</v>
+        <v>150</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
-        <v>105</v>
+        <v>53</v>
+      </c>
+      <c r="E67" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E69" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="E71" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="E72" t="s">
-        <v>57</v>
+        <v>148</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
-        <v>71</v>
+        <v>41</v>
+      </c>
+      <c r="E73" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
-        <v>72</v>
+        <v>38</v>
+      </c>
+      <c r="E74" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="E75" t="s">
-        <v>63</v>
+        <v>149</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E76" t="s">
-        <v>40</v>
+        <v>131</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
-        <v>35</v>
+        <v>105</v>
+      </c>
+      <c r="E77" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
-        <v>29</v>
+        <v>45</v>
+      </c>
+      <c r="C78" t="s">
+        <v>46</v>
       </c>
       <c r="E78" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A79" t="s">
-        <v>109</v>
-      </c>
-      <c r="E79" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A80" t="s">
-        <v>47</v>
-      </c>
-      <c r="C80" t="s">
-        <v>48</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:E80">
-    <sortCondition ref="A46"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:E78">
+    <sortCondition ref="A45"/>
   </sortState>
-  <conditionalFormatting sqref="B4:B1048576 B1:B2">
+  <conditionalFormatting sqref="B1:B2 B4:B1048576">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:C1048576 C1:C2">
+  <conditionalFormatting sqref="C1:C2 C4:C1048576">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"x"</formula>
     </cfRule>
